--- a/Output/Supplementary/model_complete.xlsx
+++ b/Output/Supplementary/model_complete.xlsx
@@ -401,22 +401,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1020946824092958</v>
+        <v>0.1020797852223599</v>
       </c>
       <c r="C2">
-        <v>0.06691072176342115</v>
+        <v>0.06691115197248018</v>
       </c>
       <c r="D2">
-        <v>-34.10297448915765</v>
+        <v>-34.10493611497474</v>
       </c>
       <c r="E2">
-        <v>6.664068957997863e-255</v>
+        <v>6.232475671621676e-255</v>
       </c>
       <c r="F2">
-        <v>0.08948684641993027</v>
+        <v>0.08947371300049291</v>
       </c>
       <c r="G2">
-        <v>0.1163256604085338</v>
+        <v>0.1163087840680655</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.7320077324470147</v>
+        <v>0.732112481595518</v>
       </c>
       <c r="C3">
-        <v>0.02451104338985503</v>
+        <v>0.02451141757241999</v>
       </c>
       <c r="D3">
-        <v>-12.72749579291808</v>
+        <v>-12.72146388607228</v>
       </c>
       <c r="E3">
-        <v>4.159675523087149e-037</v>
+        <v>4.493618620919185e-037</v>
       </c>
       <c r="F3">
-        <v>0.6976513912976543</v>
+        <v>0.6977507183652367</v>
       </c>
       <c r="G3">
-        <v>0.7680100046403643</v>
+        <v>0.7681204756394502</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.217438008748557</v>
+        <v>1.217477731917275</v>
       </c>
       <c r="C4">
-        <v>0.06118334432080989</v>
+        <v>0.06118289838292437</v>
       </c>
       <c r="D4">
-        <v>3.2157225144101</v>
+        <v>3.216279238185267</v>
       </c>
       <c r="E4">
-        <v>0.001301165783855927</v>
+        <v>0.001298644048869163</v>
       </c>
       <c r="F4">
-        <v>1.080143536781185</v>
+        <v>1.080179727608538</v>
       </c>
       <c r="G4">
-        <v>1.372948013589629</v>
+        <v>1.372991615347798</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.727717041768655</v>
+        <v>1.727821919968544</v>
       </c>
       <c r="C5">
-        <v>0.05602703098881746</v>
+        <v>0.05602667414129856</v>
       </c>
       <c r="D5">
-        <v>9.759591010742664</v>
+        <v>9.760736611249419</v>
       </c>
       <c r="E5">
-        <v>1.678306727666326e-022</v>
+        <v>1.659454784420407e-022</v>
       </c>
       <c r="F5">
-        <v>1.548810645943123</v>
+        <v>1.548905755809018</v>
       </c>
       <c r="G5">
-        <v>1.929260145545396</v>
+        <v>1.929375919536196</v>
       </c>
     </row>
     <row r="6">
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.046651161757378</v>
+        <v>3.046931509788413</v>
       </c>
       <c r="C6">
-        <v>0.05502881463702308</v>
+        <v>0.05502862090230135</v>
       </c>
       <c r="D6">
-        <v>20.24472115190286</v>
+        <v>20.24646454092478</v>
       </c>
       <c r="E6">
-        <v>3.954149592996285e-091</v>
+        <v>3.816691379047143e-091</v>
       </c>
       <c r="F6">
-        <v>2.736714888920472</v>
+        <v>2.736967770793406</v>
       </c>
       <c r="G6">
-        <v>3.395643337095179</v>
+        <v>3.395954526896823</v>
       </c>
     </row>
     <row r="7">
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.919725535546436</v>
+        <v>4.921614727638612</v>
       </c>
       <c r="C7">
-        <v>0.05661219410291142</v>
+        <v>0.05661385809623307</v>
       </c>
       <c r="D7">
-        <v>28.14327847095705</v>
+        <v>28.14923283668632</v>
       </c>
       <c r="E7">
-        <v>2.896161198315836e-174</v>
+        <v>2.448760590531358e-174</v>
       </c>
       <c r="F7">
-        <v>4.405529458066058</v>
+        <v>4.407206788196108</v>
       </c>
       <c r="G7">
-        <v>5.500286857095569</v>
+        <v>5.502416877300878</v>
       </c>
     </row>
     <row r="8">
@@ -551,22 +551,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>8.267950560278345</v>
+        <v>8.268981138319466</v>
       </c>
       <c r="C8">
-        <v>0.05982172752963202</v>
+        <v>0.05982173544615629</v>
       </c>
       <c r="D8">
-        <v>35.31136176413938</v>
+        <v>35.31344060768289</v>
       </c>
       <c r="E8">
-        <v>3.930627366424925e-273</v>
+        <v>3.652205804741325e-273</v>
       </c>
       <c r="F8">
-        <v>7.357348553309985</v>
+        <v>7.35826555921696</v>
       </c>
       <c r="G8">
-        <v>9.301889389459644</v>
+        <v>9.303049045333413</v>
       </c>
     </row>
     <row r="9">
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.154769482956826</v>
+        <v>1.154643962133548</v>
       </c>
       <c r="C9">
-        <v>0.02762035756660434</v>
+        <v>0.02762055906337315</v>
       </c>
       <c r="D9">
-        <v>5.209952182989697</v>
+        <v>5.205978569426311</v>
       </c>
       <c r="E9">
-        <v>1.888893069190552e-007</v>
+        <v>1.929769175837945e-007</v>
       </c>
       <c r="F9">
-        <v>1.093913355385527</v>
+        <v>1.093794012104028</v>
       </c>
       <c r="G9">
-        <v>1.219003587173785</v>
+        <v>1.218871559576283</v>
       </c>
     </row>
     <row r="10">
@@ -601,22 +601,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>1.037219437350454</v>
+        <v>1.037074679645588</v>
       </c>
       <c r="C10">
-        <v>0.1101651746714001</v>
+        <v>0.1101654790118203</v>
       </c>
       <c r="D10">
-        <v>0.3317156699497308</v>
+        <v>0.3304478142184469</v>
       </c>
       <c r="E10">
-        <v>0.74010396713122</v>
+        <v>0.741061618101257</v>
       </c>
       <c r="F10">
-        <v>0.8351989029343047</v>
+        <v>0.8350818862450931</v>
       </c>
       <c r="G10">
-        <v>1.286594074512411</v>
+        <v>1.286415344469982</v>
       </c>
     </row>
     <row r="11">
@@ -626,22 +626,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.254330453073166</v>
+        <v>1.254241637415455</v>
       </c>
       <c r="C11">
-        <v>0.278222736286187</v>
+        <v>0.2782243627471635</v>
       </c>
       <c r="D11">
-        <v>0.8144622891626573</v>
+        <v>0.8142030220673983</v>
       </c>
       <c r="E11">
-        <v>0.4153801673209014</v>
+        <v>0.4155286544965967</v>
       </c>
       <c r="F11">
-        <v>0.7265253591887821</v>
+        <v>0.726471944073053</v>
       </c>
       <c r="G11">
-        <v>2.170821488449054</v>
+        <v>2.170675379133328</v>
       </c>
     </row>
     <row r="12">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>1.272900425116487</v>
+        <v>1.273205994928878</v>
       </c>
       <c r="C12">
-        <v>0.04312594208017485</v>
+        <v>0.04312676695529497</v>
       </c>
       <c r="D12">
-        <v>5.595195936134532</v>
+        <v>5.600654582279798</v>
       </c>
       <c r="E12">
-        <v>2.203727497795095e-008</v>
+        <v>2.135438801537312e-008</v>
       </c>
       <c r="F12">
-        <v>1.169922472457742</v>
+        <v>1.170201445403419</v>
       </c>
       <c r="G12">
-        <v>1.385411471207957</v>
+        <v>1.385746308710527</v>
       </c>
     </row>
     <row r="13">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.519078077946594</v>
+        <v>1.519013502310276</v>
       </c>
       <c r="C13">
-        <v>0.04068927229473884</v>
+        <v>0.04068947751027767</v>
       </c>
       <c r="D13">
-        <v>10.27552471694652</v>
+        <v>10.27442813477733</v>
       </c>
       <c r="E13">
-        <v>9.084871408031718e-025</v>
+        <v>9.188775591283345e-025</v>
       </c>
       <c r="F13">
-        <v>1.402873793967228</v>
+        <v>1.402813580467581</v>
       </c>
       <c r="G13">
-        <v>1.645479544752853</v>
+        <v>1.645410241946942</v>
       </c>
     </row>
     <row r="14">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.76838683796384</v>
+        <v>1.768271625662705</v>
       </c>
       <c r="C14">
-        <v>0.05883546849312123</v>
+        <v>0.05883559363373675</v>
       </c>
       <c r="D14">
-        <v>9.689185021144676</v>
+        <v>9.688057035472063</v>
       </c>
       <c r="E14">
-        <v>3.351926024231062e-022</v>
+        <v>3.389145432503408e-022</v>
       </c>
       <c r="F14">
-        <v>1.576038091375665</v>
+        <v>1.575935018764455</v>
       </c>
       <c r="G14">
-        <v>1.984879473200339</v>
+        <v>1.984750635831092</v>
       </c>
     </row>
     <row r="15">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.317431217561947</v>
+        <v>1.317577360751419</v>
       </c>
       <c r="C15">
-        <v>0.03490779435107712</v>
+        <v>0.03490797254159252</v>
       </c>
       <c r="D15">
-        <v>7.897485315566821</v>
+        <v>7.900622621919328</v>
       </c>
       <c r="E15">
-        <v>2.845865225174736e-015</v>
+        <v>2.775136767665078e-015</v>
       </c>
       <c r="F15">
-        <v>1.230428839898884</v>
+        <v>1.230564903366719</v>
       </c>
       <c r="G15">
-        <v>1.410866697853172</v>
+        <v>1.4110236999324</v>
       </c>
     </row>
     <row r="16">
@@ -751,22 +751,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.244224349780417</v>
+        <v>1.244258718177612</v>
       </c>
       <c r="C16">
-        <v>0.06120497267601593</v>
+        <v>0.06120495432078406</v>
       </c>
       <c r="D16">
-        <v>3.570172716129219</v>
+        <v>3.570625089593666</v>
       </c>
       <c r="E16">
-        <v>0.0003567459292877475</v>
+        <v>0.0003561303289496483</v>
       </c>
       <c r="F16">
-        <v>1.103388571980729</v>
+        <v>1.103419098419648</v>
       </c>
       <c r="G16">
-        <v>1.40259688100571</v>
+        <v>1.402635584104912</v>
       </c>
     </row>
     <row r="17">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>2.051156642088653</v>
+        <v>2.051233349132251</v>
       </c>
       <c r="C17">
-        <v>0.04869354727564632</v>
+        <v>0.04869362196515068</v>
       </c>
       <c r="D17">
-        <v>14.75357393099221</v>
+        <v>14.75431929213507</v>
       </c>
       <c r="E17">
-        <v>2.917941597351866e-049</v>
+        <v>2.88588424726799e-049</v>
       </c>
       <c r="F17">
-        <v>1.864606265066964</v>
+        <v>1.864675730136139</v>
       </c>
       <c r="G17">
-        <v>2.256762867084829</v>
+        <v>2.256847602407138</v>
       </c>
     </row>
     <row r="18">
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>2.757110313743199</v>
+        <v>2.757218683293532</v>
       </c>
       <c r="C18">
-        <v>0.05994381237541448</v>
+        <v>0.05994390506978746</v>
       </c>
       <c r="D18">
-        <v>16.91889626786987</v>
+        <v>16.91952579681405</v>
       </c>
       <c r="E18">
-        <v>3.264917694758494e-064</v>
+        <v>3.230207797009107e-064</v>
       </c>
       <c r="F18">
-        <v>2.451941358269102</v>
+        <v>2.452037295225879</v>
       </c>
       <c r="G18">
-        <v>3.101449892061126</v>
+        <v>3.101572368663596</v>
       </c>
     </row>
     <row r="19">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.056862170209524</v>
+        <v>1.056671619937185</v>
       </c>
       <c r="C19">
-        <v>0.02499872368600853</v>
+        <v>0.02499954144733957</v>
       </c>
       <c r="D19">
-        <v>2.212284992126919</v>
+        <v>2.204999918255438</v>
       </c>
       <c r="E19">
-        <v>0.02694697942071265</v>
+        <v>0.02745410026888231</v>
       </c>
       <c r="F19">
-        <v>1.006317595798594</v>
+        <v>1.006134528336122</v>
       </c>
       <c r="G19">
-        <v>1.109925323153927</v>
+        <v>1.109726965186998</v>
       </c>
     </row>
     <row r="20">
@@ -851,22 +851,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.370371861305909</v>
+        <v>1.370252833608757</v>
       </c>
       <c r="C20">
-        <v>0.1020538134638511</v>
+        <v>0.1020537320878609</v>
       </c>
       <c r="D20">
-        <v>3.087411669637389</v>
+        <v>3.086562994295581</v>
       </c>
       <c r="E20">
-        <v>0.002019077673042186</v>
+        <v>0.00202485037485059</v>
       </c>
       <c r="F20">
-        <v>1.122018897372044</v>
+        <v>1.121921666522342</v>
       </c>
       <c r="G20">
-        <v>1.674233350166968</v>
+        <v>1.674087725201967</v>
       </c>
     </row>
     <row r="21">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>1.856094843276536</v>
+        <v>1.856029412222196</v>
       </c>
       <c r="C21">
-        <v>0.09383146145294163</v>
+        <v>0.09383134321834169</v>
       </c>
       <c r="D21">
-        <v>6.591336470570544</v>
+        <v>6.590969074180659</v>
       </c>
       <c r="E21">
-        <v>4.358847618764757e-011</v>
+        <v>4.369649102874261e-011</v>
       </c>
       <c r="F21">
-        <v>1.545155054910616</v>
+        <v>1.545100969324122</v>
       </c>
       <c r="G21">
-        <v>2.232436523748522</v>
+        <v>2.232357339996783</v>
       </c>
     </row>
     <row r="22">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>1.227469685543247</v>
+        <v>1.22763515502746</v>
       </c>
       <c r="C22">
-        <v>0.02487010735666059</v>
+        <v>0.0248704843872752</v>
       </c>
       <c r="D22">
-        <v>8.24101325125886</v>
+        <v>8.246308248782745</v>
       </c>
       <c r="E22">
-        <v>1.707583136466e-016</v>
+        <v>1.633629409566004e-016</v>
       </c>
       <c r="F22">
-        <v>1.169076581373058</v>
+        <v>1.169233323489112</v>
       </c>
       <c r="G22">
-        <v>1.288791397238436</v>
+        <v>1.288966095050431</v>
       </c>
     </row>
     <row r="23">
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>1.733978574309218</v>
+        <v>1.733844343298139</v>
       </c>
       <c r="C23">
-        <v>0.0527317015738633</v>
+        <v>0.05273173230850998</v>
       </c>
       <c r="D23">
-        <v>10.43809521845149</v>
+        <v>10.43662104047258</v>
       </c>
       <c r="E23">
-        <v>1.661102275187943e-025</v>
+        <v>1.68709258883831e-025</v>
       </c>
       <c r="F23">
-        <v>1.564171794892851</v>
+        <v>1.564050621590224</v>
       </c>
       <c r="G23">
-        <v>1.923388760442348</v>
+        <v>1.923239990198453</v>
       </c>
     </row>
     <row r="24">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>1.732132897368423</v>
+        <v>1.73201465299831</v>
       </c>
       <c r="C24">
-        <v>0.04940687319584501</v>
+        <v>0.04940687099891355</v>
       </c>
       <c r="D24">
-        <v>11.11896993766917</v>
+        <v>11.11758869079611</v>
       </c>
       <c r="E24">
-        <v>1.014363369639304e-028</v>
+        <v>1.030187249239036e-028</v>
       </c>
       <c r="F24">
-        <v>1.572589244196243</v>
+        <v>1.572481904289101</v>
       </c>
       <c r="G24">
-        <v>1.908689011680791</v>
+        <v>1.908558713680596</v>
       </c>
     </row>
     <row r="25">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.936827978620626</v>
+        <v>1.936724404033335</v>
       </c>
       <c r="C25">
-        <v>0.05327943909629991</v>
+        <v>0.05327950730065469</v>
       </c>
       <c r="D25">
-        <v>12.40725472240932</v>
+        <v>12.40623511728815</v>
       </c>
       <c r="E25">
-        <v>2.386975048150706e-035</v>
+        <v>2.417558197717684e-035</v>
       </c>
       <c r="F25">
-        <v>1.744979532485969</v>
+        <v>1.744885985794376</v>
       </c>
       <c r="G25">
-        <v>2.15032429753776</v>
+        <v>2.15020959452842</v>
       </c>
     </row>
     <row r="26">
@@ -1001,22 +1001,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.838204135583278</v>
+        <v>1.838129241774264</v>
       </c>
       <c r="C26">
-        <v>0.04587994713545877</v>
+        <v>0.04588002038152857</v>
       </c>
       <c r="D26">
-        <v>13.2691757456131</v>
+        <v>13.26826651176038</v>
       </c>
       <c r="E26">
-        <v>3.494027544132722e-040</v>
+        <v>3.536675751747467e-040</v>
       </c>
       <c r="F26">
-        <v>1.680405462027208</v>
+        <v>1.680336761210324</v>
       </c>
       <c r="G26">
-        <v>2.011535484676552</v>
+        <v>2.011453823079332</v>
       </c>
     </row>
     <row r="27">
@@ -1026,22 +1026,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.794950441090189</v>
+        <v>1.794837396351672</v>
       </c>
       <c r="C27">
-        <v>0.04132637900359747</v>
+        <v>0.0413264434506313</v>
       </c>
       <c r="D27">
-        <v>14.15506091370031</v>
+        <v>14.15351484443662</v>
       </c>
       <c r="E27">
-        <v>1.737870986567293e-045</v>
+        <v>1.776513024725929e-045</v>
       </c>
       <c r="F27">
-        <v>1.655265264984016</v>
+        <v>1.655160804295112</v>
       </c>
       <c r="G27">
-        <v>1.946375752727972</v>
+        <v>1.946253411980494</v>
       </c>
     </row>
   </sheetData>
